--- a/WebApplication1/Saves/03_EgzozValf_hakan_17.03.2020.xlsx
+++ b/WebApplication1/Saves/03_EgzozValf_hakan_17.03.2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">   EXHAUST VALVE CONDITION REPORT</t>
   </si>
@@ -41,7 +41,13 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>tarih</t>
+  </si>
+  <si>
     <t xml:space="preserve">O/H NO: </t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>Mou To cyl</t>
@@ -1621,58 +1627,64 @@
       <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
+      <c r="I2" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="13.5">
       <c r="A3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="45"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="72"/>
       <c r="G3" s="46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="73"/>
       <c r="J3" s="74"/>
     </row>
     <row r="4" ht="13.5">
       <c r="A4" s="87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
       <c r="D4" s="89"/>
       <c r="E4" s="47"/>
       <c r="F4" s="75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="76"/>
       <c r="H4" s="47"/>
       <c r="I4" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" s="47"/>
     </row>
     <row r="5" ht="18.75">
       <c r="A5" s="63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
       <c r="D5" s="65"/>
       <c r="E5" s="92" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
@@ -1842,12 +1854,12 @@
     </row>
     <row r="19" ht="13.5">
       <c r="A19" s="32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="73"/>
       <c r="C19" s="74"/>
       <c r="D19" s="28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
@@ -1858,7 +1870,7 @@
     </row>
     <row r="20" ht="13.5">
       <c r="A20" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="48"/>
@@ -1872,12 +1884,12 @@
     </row>
     <row r="21" ht="13.5">
       <c r="A21" s="71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="48"/>
       <c r="D21" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
@@ -1888,25 +1900,25 @@
     </row>
     <row r="22" ht="13.5">
       <c r="A22" s="71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="72"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
       <c r="E22" s="75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F22" s="76"/>
       <c r="G22" s="45"/>
       <c r="H22" s="24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I22" s="77"/>
       <c r="J22" s="78"/>
     </row>
     <row r="23" ht="13.5">
       <c r="A23" s="82" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="83"/>
       <c r="C23" s="83"/>
@@ -1921,21 +1933,21 @@
     </row>
     <row r="24" ht="13.5">
       <c r="A24" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B24" s="73"/>
       <c r="C24" s="74"/>
       <c r="D24" s="34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="50"/>
       <c r="I24" s="30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J24" s="49"/>
     </row>
@@ -1949,7 +1961,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="5"/>
       <c r="I25" s="68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J25" s="61"/>
     </row>
@@ -1987,7 +1999,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="5"/>
       <c r="I28" s="67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J28" s="61"/>
     </row>
@@ -2025,7 +2037,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="5"/>
       <c r="I31" s="67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J31" s="61"/>
     </row>
@@ -2063,7 +2075,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="5"/>
       <c r="I34" s="67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J34" s="61"/>
     </row>
@@ -2101,7 +2113,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="5"/>
       <c r="I37" s="67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J37" s="61"/>
     </row>
@@ -2110,7 +2122,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="13"/>
       <c r="D38" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E38" s="51"/>
       <c r="F38" s="19"/>
@@ -2121,12 +2133,12 @@
     </row>
     <row r="39" ht="13.5">
       <c r="A39" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" s="59"/>
       <c r="C39" s="60"/>
       <c r="D39" s="26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E39" s="52"/>
       <c r="F39" s="15"/>
@@ -2137,7 +2149,7 @@
     </row>
     <row r="40" ht="16.5">
       <c r="A40" s="63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="64"/>
@@ -2299,7 +2311,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="2"/>
       <c r="E53" s="67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F53" s="70"/>
       <c r="G53" s="4"/>
@@ -2337,7 +2349,7 @@
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F56" s="70"/>
       <c r="G56" s="4"/>
@@ -2375,7 +2387,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F59" s="70"/>
       <c r="G59" s="4"/>
